--- a/GPR/results_g/virtual_samples_ExpSineSquared.xlsx
+++ b/GPR/results_g/virtual_samples_ExpSineSquared.xlsx
@@ -458,7 +458,7 @@
         <v>-2</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4111375450919016</v>
+        <v>0.4111390059793046</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +469,7 @@
         <v>-0.9999999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>1.305854157874841</v>
+        <v>1.305855716723517</v>
       </c>
     </row>
     <row r="4">
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.818351672442506</v>
+        <v>-1.818351383333758</v>
       </c>
     </row>
     <row r="5">
@@ -491,7 +491,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.6832947268878897</v>
+        <v>-0.6832953065999714</v>
       </c>
     </row>
     <row r="6">
@@ -502,7 +502,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4224385502849681</v>
+        <v>0.4224377777655413</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         <v>-2</v>
       </c>
       <c r="C7" t="n">
-        <v>-3.008156213077975</v>
+        <v>-3.00815666051887</v>
       </c>
     </row>
     <row r="8">
@@ -524,7 +524,7 @@
         <v>-0.9999999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7510379580546829</v>
+        <v>0.751037438894528</v>
       </c>
     </row>
     <row r="9">
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.6202482628300707</v>
+        <v>-0.620248384227851</v>
       </c>
     </row>
     <row r="10">
@@ -546,7 +546,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>2.150950498366507</v>
+        <v>2.15095066035706</v>
       </c>
     </row>
     <row r="11">
@@ -557,7 +557,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>4.585044457018364</v>
+        <v>4.585044715637733</v>
       </c>
     </row>
     <row r="12">
@@ -568,7 +568,7 @@
         <v>-2</v>
       </c>
       <c r="C12" t="n">
-        <v>-4.154819461970674</v>
+        <v>-4.154819769897266</v>
       </c>
     </row>
     <row r="13">
@@ -579,7 +579,7 @@
         <v>-0.9999999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.011378172803704</v>
+        <v>-1.011378318411368</v>
       </c>
     </row>
     <row r="14">
@@ -590,7 +590,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>2.413409844653736</v>
+        <v>2.413409826621785</v>
       </c>
     </row>
     <row r="15">
@@ -601,7 +601,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>3.656525061515212</v>
+        <v>3.656525241759767</v>
       </c>
     </row>
     <row r="16">
@@ -612,7 +612,7 @@
         <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>4.662627384185338</v>
+        <v>4.662627648094276</v>
       </c>
     </row>
     <row r="17">
@@ -623,7 +623,7 @@
         <v>-2</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.5490318348450807</v>
+        <v>-0.5490308714014449</v>
       </c>
     </row>
     <row r="18">
@@ -634,7 +634,7 @@
         <v>-0.9999999999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3747033269285386</v>
+        <v>0.374703986366848</v>
       </c>
     </row>
     <row r="19">
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>2.402711814503268</v>
+        <v>2.402712079436767</v>
       </c>
     </row>
     <row r="20">
@@ -656,7 +656,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>1.205719738354735</v>
+        <v>1.205719358891832</v>
       </c>
     </row>
     <row r="21">
@@ -667,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5187521449143141</v>
+        <v>0.5187513966820434</v>
       </c>
     </row>
     <row r="22">
@@ -678,7 +678,7 @@
         <v>-1.5</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1480367597289183</v>
+        <v>0.148037466018452</v>
       </c>
     </row>
     <row r="23">
@@ -689,7 +689,7 @@
         <v>-1.5</v>
       </c>
       <c r="C23" t="n">
-        <v>1.261678314428712</v>
+        <v>1.261680630503808</v>
       </c>
     </row>
     <row r="24">
@@ -700,7 +700,7 @@
         <v>-1.5</v>
       </c>
       <c r="C24" t="n">
-        <v>-2.991266822266976</v>
+        <v>-2.991264251692744</v>
       </c>
     </row>
     <row r="25">
@@ -711,7 +711,7 @@
         <v>-1.5</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.745254501760843</v>
+        <v>-1.745253905150196</v>
       </c>
     </row>
     <row r="26">
@@ -722,7 +722,7 @@
         <v>-1.5</v>
       </c>
       <c r="C26" t="n">
-        <v>0.04166051941487392</v>
+        <v>0.04166047835373871</v>
       </c>
     </row>
     <row r="27">
@@ -733,7 +733,7 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.8344720977066127</v>
+        <v>-0.8344723073694178</v>
       </c>
     </row>
     <row r="28">
@@ -744,7 +744,7 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2290087519797611</v>
+        <v>0.2290079439843696</v>
       </c>
     </row>
     <row r="29">
@@ -755,7 +755,7 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5046924369123914</v>
+        <v>0.5046913590207297</v>
       </c>
     </row>
     <row r="30">
@@ -766,7 +766,7 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>1.67752081317655</v>
+        <v>1.677520522404791</v>
       </c>
     </row>
     <row r="31">
@@ -777,7 +777,7 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>1.113573935672377</v>
+        <v>1.11357395290021</v>
       </c>
     </row>
     <row r="32">
@@ -788,7 +788,7 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>-1.111582339973192</v>
+        <v>-1.111582487468004</v>
       </c>
     </row>
     <row r="33">
@@ -799,7 +799,7 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>-1.530026614302808</v>
+        <v>-1.530026578826854</v>
       </c>
     </row>
     <row r="34">
@@ -810,7 +810,7 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>1.932029330860328</v>
+        <v>1.932030012590424</v>
       </c>
     </row>
     <row r="35">
@@ -821,7 +821,7 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>2.963983128317229</v>
+        <v>2.963983568925301</v>
       </c>
     </row>
     <row r="36">
@@ -832,7 +832,7 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>1.139716529535252</v>
+        <v>1.139716609203579</v>
       </c>
     </row>
     <row r="37">
@@ -843,7 +843,7 @@
         <v>1.5</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.04362484778483444</v>
+        <v>-0.04362439213835423</v>
       </c>
     </row>
     <row r="38">
@@ -854,7 +854,7 @@
         <v>1.5</v>
       </c>
       <c r="C38" t="n">
-        <v>1.741259102897519</v>
+        <v>1.74125932202949</v>
       </c>
     </row>
     <row r="39">
@@ -865,7 +865,7 @@
         <v>1.5</v>
       </c>
       <c r="C39" t="n">
-        <v>5.373170835771051</v>
+        <v>5.373169619530078</v>
       </c>
     </row>
     <row r="40">
@@ -876,7 +876,7 @@
         <v>1.5</v>
       </c>
       <c r="C40" t="n">
-        <v>2.197691512027964</v>
+        <v>2.197690530716473</v>
       </c>
     </row>
     <row r="41">
@@ -887,7 +887,7 @@
         <v>1.5</v>
       </c>
       <c r="C41" t="n">
-        <v>0.1948605349836721</v>
+        <v>0.1948603522903414</v>
       </c>
     </row>
   </sheetData>
